--- a/dados/csv/2023/analise_descritiva/dados/flex-genero.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/flex-genero.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>modalidade</t>
   </si>
@@ -37,25 +37,43 @@
     <t>arrecadado_sucesso</t>
   </si>
   <si>
-    <t>media_sucesso</t>
-  </si>
-  <si>
-    <t>std_sucesso</t>
-  </si>
-  <si>
-    <t>min_sucesso</t>
-  </si>
-  <si>
-    <t>max_sucesso</t>
+    <t>arrecadado_avg</t>
+  </si>
+  <si>
+    <t>arrecadado_std</t>
+  </si>
+  <si>
+    <t>arrecadado_min</t>
+  </si>
+  <si>
+    <t>arrecadado_max</t>
   </si>
   <si>
     <t>apoio_medio</t>
   </si>
   <si>
+    <t>apoio_std</t>
+  </si>
+  <si>
+    <t>apoio_min</t>
+  </si>
+  <si>
+    <t>apoio_max</t>
+  </si>
+  <si>
     <t>contribuicoes</t>
   </si>
   <si>
-    <t>media_contribuicoes</t>
+    <t>contribuicoes_med</t>
+  </si>
+  <si>
+    <t>contribuicoes_std</t>
+  </si>
+  <si>
+    <t>contribuicoes_min</t>
+  </si>
+  <si>
+    <t>contribuicoes_max</t>
   </si>
   <si>
     <t>menor_ano</t>
@@ -445,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,11 +479,17 @@
     <col min="10" max="10" width="9.140625" style="3"/>
     <col min="11" max="11" width="9.140625" style="3"/>
     <col min="12" max="12" width="9.140625" style="3"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="9.140625" style="3"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -514,13 +538,31 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1">
         <v>72</v>
@@ -550,27 +592,45 @@
         <v>169836.9145144388</v>
       </c>
       <c r="L2" s="3">
-        <v>95.44644410600942</v>
-      </c>
-      <c r="M2" s="1">
+        <v>88.06007413874362</v>
+      </c>
+      <c r="M2" s="3">
+        <v>47.96955813517068</v>
+      </c>
+      <c r="N2" s="3">
+        <v>14.90596347946683</v>
+      </c>
+      <c r="O2" s="3">
+        <v>254.2443749773306</v>
+      </c>
+      <c r="P2" s="1">
         <v>15501</v>
       </c>
-      <c r="N2" s="1">
+      <c r="Q2" s="1">
         <v>224.6521739130435</v>
       </c>
-      <c r="O2">
+      <c r="R2" s="1">
+        <v>325.0284071787353</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>2015</v>
+      </c>
+      <c r="U2">
         <v>2016</v>
       </c>
-      <c r="P2">
+      <c r="V2">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>440</v>
@@ -600,27 +660,45 @@
         <v>708972.7845446636</v>
       </c>
       <c r="L3" s="3">
-        <v>96.51058441972074</v>
-      </c>
-      <c r="M3" s="1">
+        <v>89.8194628153171</v>
+      </c>
+      <c r="M3" s="3">
+        <v>37.89772641853159</v>
+      </c>
+      <c r="N3" s="3">
+        <v>16.18065842403185</v>
+      </c>
+      <c r="O3" s="3">
+        <v>233.3973531230909</v>
+      </c>
+      <c r="P3" s="1">
         <v>95943</v>
       </c>
-      <c r="N3" s="1">
+      <c r="Q3" s="1">
         <v>218.0522727272727</v>
       </c>
-      <c r="O3">
+      <c r="R3" s="1">
+        <v>486.1905468340719</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>7954</v>
+      </c>
+      <c r="U3">
         <v>2016</v>
       </c>
-      <c r="P3">
+      <c r="V3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>182</v>
@@ -650,27 +728,45 @@
         <v>29736.68915792071</v>
       </c>
       <c r="L4" s="3">
-        <v>66.65034280439198</v>
-      </c>
-      <c r="M4" s="1">
+        <v>67.58055662882595</v>
+      </c>
+      <c r="M4" s="3">
+        <v>23.28873679351738</v>
+      </c>
+      <c r="N4" s="3">
+        <v>18.47818326605706</v>
+      </c>
+      <c r="O4" s="3">
+        <v>154.8484188303038</v>
+      </c>
+      <c r="P4" s="1">
         <v>17194</v>
       </c>
-      <c r="N4" s="1">
+      <c r="Q4" s="1">
         <v>97.69318181818181</v>
       </c>
-      <c r="O4">
+      <c r="R4" s="1">
+        <v>95.76839418448722</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>453</v>
+      </c>
+      <c r="U4">
         <v>2016</v>
       </c>
-      <c r="P4">
+      <c r="V4">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>763</v>
@@ -700,27 +796,45 @@
         <v>442290.1113560894</v>
       </c>
       <c r="L5" s="3">
-        <v>86.43541554443971</v>
-      </c>
-      <c r="M5" s="1">
+        <v>71.27543548498546</v>
+      </c>
+      <c r="M5" s="3">
+        <v>40.7941143515294</v>
+      </c>
+      <c r="N5" s="3">
+        <v>10.77163914429046</v>
+      </c>
+      <c r="O5" s="3">
+        <v>461.5197709071476</v>
+      </c>
+      <c r="P5" s="1">
         <v>74806</v>
       </c>
-      <c r="N5" s="1">
+      <c r="Q5" s="1">
         <v>108.2575976845152</v>
       </c>
-      <c r="O5">
+      <c r="R5" s="1">
+        <v>214.0671103886876</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>3474</v>
+      </c>
+      <c r="U5">
         <v>2016</v>
       </c>
-      <c r="P5">
+      <c r="V5">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>11</v>
@@ -750,18 +864,36 @@
         <v>5515.844600589859</v>
       </c>
       <c r="L6" s="3">
-        <v>55.58374799260083</v>
-      </c>
-      <c r="M6" s="1">
+        <v>45.24320624776205</v>
+      </c>
+      <c r="M6" s="3">
+        <v>14.93011251059404</v>
+      </c>
+      <c r="N6" s="3">
+        <v>21.17889830378416</v>
+      </c>
+      <c r="O6" s="3">
+        <v>63.40051265045815</v>
+      </c>
+      <c r="P6" s="1">
         <v>202</v>
       </c>
-      <c r="N6" s="1">
+      <c r="Q6" s="1">
         <v>28.85714285714286</v>
       </c>
-      <c r="O6">
+      <c r="R6" s="1">
+        <v>34.72956747704838</v>
+      </c>
+      <c r="S6" s="1">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>87</v>
+      </c>
+      <c r="U6">
         <v>2017</v>
       </c>
-      <c r="P6">
+      <c r="V6">
         <v>2023</v>
       </c>
     </row>

--- a/dados/csv/2023/analise_descritiva/dados/flex-genero.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/flex-genero.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>modalidade</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>taxa_sucesso</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>meta_avg</t>
+  </si>
+  <si>
+    <t>meta_std</t>
+  </si>
+  <si>
+    <t>meta_min</t>
+  </si>
+  <si>
+    <t>meta_max</t>
   </si>
   <si>
     <t>arrecadado_sucesso</t>
@@ -463,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -482,14 +497,19 @@
     <col min="13" max="13" width="9.140625" style="3"/>
     <col min="14" max="14" width="9.140625" style="3"/>
     <col min="15" max="15" width="9.140625" style="3"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="9.140625" style="3"/>
+    <col min="18" max="18" width="9.140625" style="3"/>
+    <col min="19" max="19" width="9.140625" style="3"/>
+    <col min="20" max="20" width="9.140625" style="3"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="9.140625" style="1"/>
+    <col min="25" max="25" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:27">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -556,13 +576,28 @@
       <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>72</v>
@@ -577,60 +612,75 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="G2" s="3">
+        <v>721610.3061912227</v>
+      </c>
+      <c r="H2" s="3">
+        <v>10458.12037958294</v>
+      </c>
+      <c r="I2" s="3">
+        <v>11144.2267578863</v>
+      </c>
+      <c r="J2" s="3">
+        <v>44.33046360042423</v>
+      </c>
+      <c r="K2" s="3">
+        <v>50590.198657868</v>
+      </c>
+      <c r="L2" s="3">
         <v>1479515.330087252</v>
       </c>
-      <c r="H2" s="3">
+      <c r="M2" s="3">
         <v>21442.25116068481</v>
       </c>
-      <c r="I2" s="3">
+      <c r="N2" s="3">
         <v>34235.40069887554</v>
       </c>
-      <c r="J2" s="3">
+      <c r="O2" s="3">
         <v>29.81192695893366</v>
       </c>
-      <c r="K2" s="3">
+      <c r="P2" s="3">
         <v>169836.9145144388</v>
       </c>
-      <c r="L2" s="3">
-        <v>88.06007413874362</v>
-      </c>
-      <c r="M2" s="3">
+      <c r="Q2" s="3">
+        <v>88.0600741387436</v>
+      </c>
+      <c r="R2" s="3">
         <v>47.96955813517068</v>
       </c>
-      <c r="N2" s="3">
+      <c r="S2" s="3">
         <v>14.90596347946683</v>
       </c>
-      <c r="O2" s="3">
+      <c r="T2" s="3">
         <v>254.2443749773306</v>
       </c>
-      <c r="P2" s="1">
+      <c r="U2" s="1">
         <v>15501</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="V2" s="1">
         <v>224.6521739130435</v>
       </c>
-      <c r="R2" s="1">
+      <c r="W2" s="1">
         <v>325.0284071787353</v>
       </c>
-      <c r="S2" s="1">
+      <c r="X2" s="1">
         <v>1</v>
       </c>
-      <c r="T2" s="1">
+      <c r="Y2" s="1">
         <v>2015</v>
       </c>
-      <c r="U2">
+      <c r="Z2">
         <v>2016</v>
       </c>
-      <c r="V2">
+      <c r="AA2">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1">
         <v>440</v>
@@ -645,60 +695,75 @@
         <v>1</v>
       </c>
       <c r="G3" s="3">
+        <v>5883940.636230236</v>
+      </c>
+      <c r="H3" s="3">
+        <v>13372.59235506872</v>
+      </c>
+      <c r="I3" s="3">
+        <v>19267.96260047285</v>
+      </c>
+      <c r="J3" s="3">
+        <v>23.98859826184044</v>
+      </c>
+      <c r="K3" s="3">
+        <v>147790.8327903106</v>
+      </c>
+      <c r="L3" s="3">
         <v>9259515.000981268</v>
       </c>
-      <c r="H3" s="3">
+      <c r="M3" s="3">
         <v>21044.35227495743</v>
       </c>
-      <c r="I3" s="3">
+      <c r="N3" s="3">
         <v>46143.04061102023</v>
       </c>
-      <c r="J3" s="3">
+      <c r="O3" s="3">
         <v>34.74344187043801</v>
       </c>
-      <c r="K3" s="3">
+      <c r="P3" s="3">
         <v>708972.7845446636</v>
       </c>
-      <c r="L3" s="3">
+      <c r="Q3" s="3">
         <v>89.8194628153171</v>
       </c>
-      <c r="M3" s="3">
+      <c r="R3" s="3">
         <v>37.89772641853159</v>
       </c>
-      <c r="N3" s="3">
+      <c r="S3" s="3">
         <v>16.18065842403185</v>
       </c>
-      <c r="O3" s="3">
+      <c r="T3" s="3">
         <v>233.3973531230909</v>
       </c>
-      <c r="P3" s="1">
+      <c r="U3" s="1">
         <v>95943</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="V3" s="1">
         <v>218.0522727272727</v>
       </c>
-      <c r="R3" s="1">
+      <c r="W3" s="1">
         <v>486.1905468340719</v>
       </c>
-      <c r="S3" s="1">
+      <c r="X3" s="1">
         <v>1</v>
       </c>
-      <c r="T3" s="1">
+      <c r="Y3" s="1">
         <v>7954</v>
       </c>
-      <c r="U3">
+      <c r="Z3">
         <v>2016</v>
       </c>
-      <c r="V3">
+      <c r="AA3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
         <v>182</v>
@@ -713,60 +778,75 @@
         <v>0.967032967032967</v>
       </c>
       <c r="G4" s="3">
+        <v>1712986.472842461</v>
+      </c>
+      <c r="H4" s="3">
+        <v>9732.877686604894</v>
+      </c>
+      <c r="I4" s="3">
+        <v>10102.88946115519</v>
+      </c>
+      <c r="J4" s="3">
+        <v>46.55761904502517</v>
+      </c>
+      <c r="K4" s="3">
+        <v>83151.82469725677</v>
+      </c>
+      <c r="L4" s="3">
         <v>1145985.994178716</v>
       </c>
-      <c r="H4" s="3">
-        <v>6511.284057833613</v>
-      </c>
-      <c r="I4" s="3">
-        <v>6521.39877060496</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="M4" s="3">
+        <v>6511.284057833614</v>
+      </c>
+      <c r="N4" s="3">
+        <v>6521.398770604959</v>
+      </c>
+      <c r="O4" s="3">
         <v>35.53279454902379</v>
       </c>
-      <c r="K4" s="3">
+      <c r="P4" s="3">
         <v>29736.68915792071</v>
       </c>
-      <c r="L4" s="3">
+      <c r="Q4" s="3">
         <v>67.58055662882595</v>
       </c>
-      <c r="M4" s="3">
+      <c r="R4" s="3">
         <v>23.28873679351738</v>
       </c>
-      <c r="N4" s="3">
+      <c r="S4" s="3">
         <v>18.47818326605706</v>
       </c>
-      <c r="O4" s="3">
+      <c r="T4" s="3">
         <v>154.8484188303038</v>
       </c>
-      <c r="P4" s="1">
+      <c r="U4" s="1">
         <v>17194</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="V4" s="1">
         <v>97.69318181818181</v>
       </c>
-      <c r="R4" s="1">
-        <v>95.76839418448722</v>
-      </c>
-      <c r="S4" s="1">
+      <c r="W4" s="1">
+        <v>95.76839418448721</v>
+      </c>
+      <c r="X4" s="1">
         <v>1</v>
       </c>
-      <c r="T4" s="1">
+      <c r="Y4" s="1">
         <v>453</v>
       </c>
-      <c r="U4">
+      <c r="Z4">
         <v>2016</v>
       </c>
-      <c r="V4">
+      <c r="AA4">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
         <v>763</v>
@@ -781,60 +861,75 @@
         <v>0.9056356487549148</v>
       </c>
       <c r="G5" s="3">
+        <v>7150010.825257363</v>
+      </c>
+      <c r="H5" s="3">
+        <v>10347.33838676898</v>
+      </c>
+      <c r="I5" s="3">
+        <v>16064.05218382809</v>
+      </c>
+      <c r="J5" s="3">
+        <v>12.04441558726698</v>
+      </c>
+      <c r="K5" s="3">
+        <v>198811.9434626772</v>
+      </c>
+      <c r="L5" s="3">
         <v>6465887.695217357</v>
       </c>
-      <c r="H5" s="3">
+      <c r="M5" s="3">
         <v>9357.290441703844</v>
       </c>
-      <c r="I5" s="3">
-        <v>27421.04653337889</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="N5" s="3">
+        <v>27421.04653337888</v>
+      </c>
+      <c r="O5" s="3">
         <v>10.77163914429046</v>
       </c>
-      <c r="K5" s="3">
+      <c r="P5" s="3">
         <v>442290.1113560894</v>
       </c>
-      <c r="L5" s="3">
+      <c r="Q5" s="3">
         <v>71.27543548498546</v>
       </c>
-      <c r="M5" s="3">
+      <c r="R5" s="3">
         <v>40.7941143515294</v>
       </c>
-      <c r="N5" s="3">
+      <c r="S5" s="3">
         <v>10.77163914429046</v>
       </c>
-      <c r="O5" s="3">
+      <c r="T5" s="3">
         <v>461.5197709071476</v>
       </c>
-      <c r="P5" s="1">
+      <c r="U5" s="1">
         <v>74806</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="V5" s="1">
         <v>108.2575976845152</v>
       </c>
-      <c r="R5" s="1">
+      <c r="W5" s="1">
         <v>214.0671103886876</v>
       </c>
-      <c r="S5" s="1">
+      <c r="X5" s="1">
         <v>1</v>
       </c>
-      <c r="T5" s="1">
+      <c r="Y5" s="1">
         <v>3474</v>
       </c>
-      <c r="U5">
+      <c r="Z5">
         <v>2016</v>
       </c>
-      <c r="V5">
+      <c r="AA5">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
         <v>11</v>
@@ -849,51 +944,66 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="G6" s="3">
+        <v>131168.4623975197</v>
+      </c>
+      <c r="H6" s="3">
+        <v>18738.35177107424</v>
+      </c>
+      <c r="I6" s="3">
+        <v>19781.31029827062</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2420.445520432476</v>
+      </c>
+      <c r="K6" s="3">
+        <v>54319.48382898097</v>
+      </c>
+      <c r="L6" s="3">
         <v>11227.91709450537</v>
       </c>
-      <c r="H6" s="3">
+      <c r="M6" s="3">
         <v>1603.98815635791</v>
       </c>
-      <c r="I6" s="3">
+      <c r="N6" s="3">
         <v>2112.496775736096</v>
       </c>
-      <c r="J6" s="3">
+      <c r="O6" s="3">
         <v>42.35779660756832</v>
       </c>
-      <c r="K6" s="3">
+      <c r="P6" s="3">
         <v>5515.844600589859</v>
       </c>
-      <c r="L6" s="3">
-        <v>45.24320624776205</v>
-      </c>
-      <c r="M6" s="3">
+      <c r="Q6" s="3">
+        <v>45.24320624776207</v>
+      </c>
+      <c r="R6" s="3">
         <v>14.93011251059404</v>
       </c>
-      <c r="N6" s="3">
+      <c r="S6" s="3">
         <v>21.17889830378416</v>
       </c>
-      <c r="O6" s="3">
+      <c r="T6" s="3">
         <v>63.40051265045815</v>
       </c>
-      <c r="P6" s="1">
+      <c r="U6" s="1">
         <v>202</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="V6" s="1">
         <v>28.85714285714286</v>
       </c>
-      <c r="R6" s="1">
+      <c r="W6" s="1">
         <v>34.72956747704838</v>
       </c>
-      <c r="S6" s="1">
+      <c r="X6" s="1">
         <v>2</v>
       </c>
-      <c r="T6" s="1">
+      <c r="Y6" s="1">
         <v>87</v>
       </c>
-      <c r="U6">
+      <c r="Z6">
         <v>2017</v>
       </c>
-      <c r="V6">
+      <c r="AA6">
         <v>2023</v>
       </c>
     </row>
